--- a/StructureDefinition-mp4p-freitext.xlsx
+++ b/StructureDefinition-mp4p-freitext.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -271,10 +271,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,47 +290,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -385,10 +385,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2062,39 +2058,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2329,19 +2325,19 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2355,7 +2351,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2366,28 +2362,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2437,13 +2433,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2475,7 +2471,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2486,25 +2482,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2555,19 +2551,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2593,7 +2589,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2604,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2616,7 +2612,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2679,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2842,28 +2838,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2913,19 +2909,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -2951,7 +2947,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2962,28 +2958,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3033,19 +3029,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3071,7 +3067,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3082,28 +3078,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3153,19 +3149,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3191,7 +3187,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3205,25 +3201,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3273,7 +3269,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3285,7 +3281,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3311,7 +3307,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3331,19 +3327,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3369,31 +3365,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3405,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3431,7 +3427,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3451,19 +3447,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3489,31 +3485,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3525,7 +3521,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3551,7 +3547,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3562,28 +3558,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3633,19 +3629,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3671,7 +3667,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3682,11 +3678,11 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3694,16 +3690,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3729,43 +3725,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3791,18 +3787,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3814,16 +3810,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3873,31 +3869,31 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3911,11 +3907,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3934,16 +3930,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3993,7 +3989,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4017,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4031,7 +4027,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4060,7 +4056,7 @@
         <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>113</v>
@@ -4113,7 +4109,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4137,7 +4133,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4151,7 +4147,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4168,7 +4164,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4177,16 +4173,16 @@
         <v>110</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4235,7 +4231,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4259,7 +4255,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4293,20 +4289,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4355,7 +4351,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4367,22 +4363,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4393,11 +4389,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4413,20 +4409,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4475,7 +4471,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4487,19 +4483,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4513,11 +4509,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4533,19 +4529,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4595,7 +4591,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4607,19 +4603,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4633,7 +4629,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4641,110 +4637,110 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4755,7 +4751,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4778,19 +4774,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4815,14 +4811,14 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4839,7 +4835,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4851,7 +4847,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -4863,10 +4859,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4877,42 +4873,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4937,61 +4933,61 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4999,7 +4995,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5010,7 +5006,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5022,7 +5018,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>104</v>
@@ -5085,7 +5081,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5117,7 +5113,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5237,7 +5233,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5245,34 +5241,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5309,7 +5305,7 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
@@ -5319,7 +5315,7 @@
         <v>116</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5331,7 +5327,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5340,10 +5336,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5357,44 +5353,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5404,7 +5400,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5443,7 +5439,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5455,7 +5451,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5464,10 +5460,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5481,7 +5477,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5492,7 +5488,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5504,7 +5500,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>104</v>
@@ -5567,7 +5563,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5599,7 +5595,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5719,7 +5715,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5727,34 +5723,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5803,31 +5799,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5841,7 +5837,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5852,28 +5848,28 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5923,31 +5919,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5961,7 +5957,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5969,32 +5965,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6043,31 +6039,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6081,7 +6077,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6092,29 +6088,29 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6163,31 +6159,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6201,7 +6197,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6212,31 +6208,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6285,31 +6281,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6323,7 +6319,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6334,31 +6330,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6407,31 +6403,31 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6441,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6453,34 +6449,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6529,34 +6525,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6567,7 +6563,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6587,19 +6583,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6649,7 +6645,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6661,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6670,13 +6666,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6687,42 +6683,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6771,34 +6767,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6809,42 +6805,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6893,34 +6889,34 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6931,7 +6927,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6942,28 +6938,28 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7013,19 +7009,19 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>80</v>
@@ -7034,13 +7030,13 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7051,7 +7047,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7071,20 +7067,20 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7133,7 +7129,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7145,22 +7141,22 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7171,7 +7167,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7179,34 +7175,34 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7243,47 +7239,47 @@
         <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH43" t="s" s="2">
+      <c r="AI43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AI43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7291,44 +7287,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -7377,45 +7373,45 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AI44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AP44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7438,19 +7434,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7475,55 +7471,55 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH45" t="s" s="2">
+      <c r="AI45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7537,11 +7533,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7560,19 +7556,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7597,14 +7593,14 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7633,25 +7629,25 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7659,7 +7655,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7682,19 +7678,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7743,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7755,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7764,10 +7760,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7781,7 +7777,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7804,16 +7800,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7839,61 +7835,61 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7901,7 +7897,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7912,7 +7908,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7924,19 +7920,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7961,55 +7957,55 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8023,7 +8019,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8046,16 +8042,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8105,37 +8101,37 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8143,7 +8139,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8154,7 +8150,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8166,16 +8162,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8225,37 +8221,37 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8263,7 +8259,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8286,19 +8282,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8347,7 +8343,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8359,19 +8355,19 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8385,7 +8381,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8396,7 +8392,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8408,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>104</v>
@@ -8471,7 +8467,7 @@
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8503,7 +8499,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8623,11 +8619,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8640,25 +8636,25 @@
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>110</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8707,7 +8703,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8731,7 +8727,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8745,7 +8741,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8756,7 +8752,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8768,13 +8764,13 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8825,31 +8821,31 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AI56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8863,7 +8859,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8874,7 +8870,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8886,13 +8882,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8943,31 +8939,31 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8981,7 +8977,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8992,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -9004,19 +9000,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9041,55 +9037,55 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9103,7 +9099,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9126,19 +9122,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9163,14 +9159,14 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9199,19 +9195,19 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9225,7 +9221,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9236,7 +9232,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9248,17 +9244,17 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9307,19 +9303,19 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
@@ -9331,7 +9327,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9345,7 +9341,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9356,7 +9352,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9368,13 +9364,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9425,19 +9421,19 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
@@ -9446,10 +9442,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9463,7 +9459,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9483,19 +9479,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9545,7 +9541,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9557,7 +9553,7 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9566,10 +9562,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9583,7 +9579,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9603,19 +9599,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9665,7 +9661,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9677,7 +9673,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -9686,10 +9682,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9703,7 +9699,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9723,22 +9719,22 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9787,7 +9783,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9799,7 +9795,7 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
@@ -9808,10 +9804,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9825,7 +9821,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9836,7 +9832,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9848,7 +9844,7 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>104</v>
@@ -9911,7 +9907,7 @@
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9943,7 +9939,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10063,11 +10059,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -10080,25 +10076,25 @@
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>110</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10147,7 +10143,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10171,7 +10167,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10185,7 +10181,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10193,34 +10189,34 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10245,14 +10241,14 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10269,34 +10265,34 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10307,7 +10303,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10318,31 +10314,31 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -10391,37 +10387,37 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10429,7 +10425,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10440,7 +10436,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10452,19 +10448,19 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10489,55 +10485,55 @@
         <v>80</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH70" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10551,11 +10547,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10574,19 +10570,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10611,14 +10607,14 @@
         <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10647,25 +10643,25 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -10673,7 +10669,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10699,16 +10695,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10757,7 +10753,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10769,7 +10765,7 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10778,10 +10774,10 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
